--- a/output/StructureDefinition-ConsentTemplate.xlsx
+++ b/output/StructureDefinition-ConsentTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6051" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="794">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025.1.0</t>
+    <t>2025.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -2034,10 +2034,6 @@
   </si>
   <si>
     <t>Questionnaire.item.text.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
   </si>
   <si>
     <t>Questionnaire.item.text.extension:renderingMarkdown.value[x]:valueMarkdown</t>
@@ -17372,14 +17368,16 @@
         <v>21</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AC142" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="AD142" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>163</v>
@@ -17399,13 +17397,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>647</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>21</v>
@@ -17501,13 +17499,13 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>633</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>126</v>
@@ -17529,13 +17527,13 @@
         <v>21</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>130</v>
@@ -17605,7 +17603,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>640</v>
@@ -17705,7 +17703,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>642</v>
@@ -17807,7 +17805,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>644</v>
@@ -17850,7 +17848,7 @@
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>21</v>
@@ -17909,7 +17907,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>647</v>
@@ -17980,14 +17978,16 @@
         <v>21</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AC148" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="AD148" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>163</v>
@@ -18007,13 +18007,13 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>647</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D149" t="s" s="2">
         <v>21</v>
@@ -18109,10 +18109,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18138,10 +18138,10 @@
         <v>143</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -18165,34 +18165,34 @@
         <v>21</v>
       </c>
       <c r="W150" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF150" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>75</v>
@@ -18209,10 +18209,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18238,16 +18238,16 @@
         <v>103</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>21</v>
@@ -18275,11 +18275,11 @@
         <v>175</v>
       </c>
       <c r="Y151" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Z151" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Z151" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="AA151" t="s" s="2">
         <v>21</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>21</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>82</v>
@@ -18313,10 +18313,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18342,16 +18342,16 @@
         <v>544</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="N152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>21</v>
@@ -18400,7 +18400,7 @@
         <v>21</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>75</v>
@@ -18412,15 +18412,15 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18517,10 +18517,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18619,13 +18619,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="C155" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>126</v>
@@ -18723,10 +18723,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B156" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18823,10 +18823,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B157" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18925,10 +18925,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B158" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>689</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19027,10 +19027,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="B159" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19053,7 +19053,7 @@
         <v>21</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>161</v>
@@ -19127,10 +19127,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="B160" t="s" s="2">
         <v>693</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>694</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19227,10 +19227,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B161" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19329,10 +19329,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B162" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19431,10 +19431,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B163" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19533,10 +19533,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="B164" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19635,10 +19635,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B165" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19737,10 +19737,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19841,10 +19841,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19870,13 +19870,13 @@
         <v>143</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>708</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>709</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -19926,7 +19926,7 @@
         <v>21</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>82</v>
@@ -19943,10 +19943,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19972,10 +19972,10 @@
         <v>103</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>172</v>
@@ -20007,11 +20007,11 @@
         <v>175</v>
       </c>
       <c r="Y168" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="Z168" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="Z168" t="s" s="2">
-        <v>714</v>
-      </c>
       <c r="AA168" t="s" s="2">
         <v>21</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>21</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>82</v>
@@ -20045,10 +20045,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20071,13 +20071,13 @@
         <v>21</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -20107,37 +20107,37 @@
         <v>613</v>
       </c>
       <c r="Y169" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Z169" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Z169" t="s" s="2">
+      <c r="AA169" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB169" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC169" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD169" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE169" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF169" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AG169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI169" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>95</v>
@@ -20145,10 +20145,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20174,13 +20174,13 @@
         <v>103</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -20209,37 +20209,37 @@
         <v>175</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Z170" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB170" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC170" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD170" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE170" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF170" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="AG170" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI170" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>95</v>
@@ -20247,10 +20247,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20276,74 +20276,74 @@
         <v>288</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>21</v>
       </c>
       <c r="Q171" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="R171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="S171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI171" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="R171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="S171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>95</v>
@@ -20351,10 +20351,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20380,23 +20380,23 @@
         <v>288</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="O172" t="s" s="2">
+      <c r="P172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q172" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="P172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q172" t="s" s="2">
-        <v>739</v>
-      </c>
       <c r="R172" t="s" s="2">
         <v>21</v>
       </c>
@@ -20440,7 +20440,7 @@
         <v>21</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>75</v>
@@ -20449,7 +20449,7 @@
         <v>82</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>95</v>
@@ -20457,10 +20457,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20486,16 +20486,16 @@
         <v>288</v>
       </c>
       <c r="L173" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="N173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>21</v>
@@ -20544,7 +20544,7 @@
         <v>21</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>75</v>
@@ -20553,7 +20553,7 @@
         <v>82</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>95</v>
@@ -20561,10 +20561,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20587,16 +20587,16 @@
         <v>21</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L174" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -20646,7 +20646,7 @@
         <v>21</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>75</v>
@@ -20655,7 +20655,7 @@
         <v>82</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>95</v>
@@ -20663,10 +20663,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20689,16 +20689,16 @@
         <v>21</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>754</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>755</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>756</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20748,7 +20748,7 @@
         <v>21</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>75</v>
@@ -20757,7 +20757,7 @@
         <v>82</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>95</v>
@@ -20765,10 +20765,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20794,13 +20794,13 @@
         <v>544</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M176" t="s" s="2">
+      <c r="N176" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -20850,7 +20850,7 @@
         <v>21</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>75</v>
@@ -20859,7 +20859,7 @@
         <v>76</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>95</v>
@@ -20867,10 +20867,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20967,10 +20967,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -21069,10 +21069,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21173,10 +21173,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21199,16 +21199,16 @@
         <v>21</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>767</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>768</v>
-      </c>
-      <c r="N180" t="s" s="2">
-        <v>769</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
@@ -21237,11 +21237,11 @@
         <v>613</v>
       </c>
       <c r="Y180" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Z180" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Z180" t="s" s="2">
-        <v>720</v>
-      </c>
       <c r="AA180" t="s" s="2">
         <v>21</v>
       </c>
@@ -21258,7 +21258,7 @@
         <v>21</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>82</v>
@@ -21275,10 +21275,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21304,20 +21304,20 @@
         <v>288</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>21</v>
       </c>
       <c r="Q181" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R181" t="s" s="2">
         <v>21</v>
@@ -21362,7 +21362,7 @@
         <v>21</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>75</v>
@@ -21379,10 +21379,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21408,16 +21408,16 @@
         <v>544</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="N182" t="s" s="2">
+      <c r="O182" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>21</v>
@@ -21466,7 +21466,7 @@
         <v>21</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>75</v>
@@ -21475,7 +21475,7 @@
         <v>76</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>95</v>
@@ -21483,10 +21483,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21583,10 +21583,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21685,10 +21685,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21789,10 +21789,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21815,16 +21815,16 @@
         <v>21</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>785</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
@@ -21853,11 +21853,11 @@
         <v>613</v>
       </c>
       <c r="Y186" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Z186" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Z186" t="s" s="2">
-        <v>720</v>
-      </c>
       <c r="AA186" t="s" s="2">
         <v>21</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>21</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>82</v>
@@ -21891,10 +21891,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21920,16 +21920,16 @@
         <v>77</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>790</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="N187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>21</v>
@@ -21978,7 +21978,7 @@
         <v>21</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>75</v>
@@ -21987,7 +21987,7 @@
         <v>76</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>21</v>

--- a/output/StructureDefinition-ConsentTemplate.xlsx
+++ b/output/StructureDefinition-ConsentTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6051" uniqueCount="795">
   <si>
     <t>Property</t>
   </si>
@@ -2034,6 +2034,10 @@
   </si>
   <si>
     <t>Questionnaire.item.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
   </si>
   <si>
     <t>Questionnaire.item.text.extension:renderingMarkdown.value[x]:valueMarkdown</t>
@@ -17368,16 +17372,14 @@
         <v>21</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="AC142" s="2"/>
       <c r="AD142" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>163</v>
@@ -17397,13 +17399,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>647</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>21</v>
@@ -17499,13 +17501,13 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>633</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>126</v>
@@ -17527,13 +17529,13 @@
         <v>21</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>130</v>
@@ -17603,7 +17605,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>640</v>
@@ -17703,7 +17705,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>642</v>
@@ -17805,7 +17807,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>644</v>
@@ -17848,7 +17850,7 @@
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>21</v>
@@ -17907,7 +17909,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>647</v>
@@ -17978,16 +17980,14 @@
         <v>21</v>
       </c>
       <c r="AB148" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="AC148" s="2"/>
       <c r="AD148" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>163</v>
@@ -18007,13 +18007,13 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>647</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D149" t="s" s="2">
         <v>21</v>
@@ -18109,10 +18109,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18138,10 +18138,10 @@
         <v>143</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -18165,7 +18165,7 @@
         <v>21</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="X150" t="s" s="2">
         <v>21</v>
@@ -18192,7 +18192,7 @@
         <v>21</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>75</v>
@@ -18209,10 +18209,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -18238,16 +18238,16 @@
         <v>103</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>21</v>
@@ -18275,10 +18275,10 @@
         <v>175</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>21</v>
@@ -18296,7 +18296,7 @@
         <v>21</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>82</v>
@@ -18313,10 +18313,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18342,16 +18342,16 @@
         <v>544</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>21</v>
@@ -18400,7 +18400,7 @@
         <v>21</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>75</v>
@@ -18412,15 +18412,15 @@
         <v>94</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18517,10 +18517,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18619,13 +18619,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B155" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="B155" t="s" s="2">
-        <v>680</v>
-      </c>
       <c r="C155" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>126</v>
@@ -18723,10 +18723,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18823,10 +18823,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18925,10 +18925,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19027,10 +19027,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19053,7 +19053,7 @@
         <v>21</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>161</v>
@@ -19127,10 +19127,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19227,10 +19227,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19329,10 +19329,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19431,10 +19431,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19533,10 +19533,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19635,10 +19635,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19737,10 +19737,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19841,10 +19841,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19870,13 +19870,13 @@
         <v>143</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -19926,7 +19926,7 @@
         <v>21</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>82</v>
@@ -19943,10 +19943,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19972,10 +19972,10 @@
         <v>103</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N168" t="s" s="2">
         <v>172</v>
@@ -20007,10 +20007,10 @@
         <v>175</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>21</v>
@@ -20028,7 +20028,7 @@
         <v>21</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>82</v>
@@ -20045,10 +20045,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20071,13 +20071,13 @@
         <v>21</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -20107,10 +20107,10 @@
         <v>613</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>21</v>
@@ -20128,7 +20128,7 @@
         <v>21</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>82</v>
@@ -20137,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>95</v>
@@ -20145,10 +20145,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20174,13 +20174,13 @@
         <v>103</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O170" s="2"/>
       <c r="P170" t="s" s="2">
@@ -20209,10 +20209,10 @@
         <v>175</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>21</v>
@@ -20230,7 +20230,7 @@
         <v>21</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>75</v>
@@ -20239,7 +20239,7 @@
         <v>82</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>95</v>
@@ -20247,10 +20247,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20276,20 +20276,20 @@
         <v>288</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>21</v>
       </c>
       <c r="Q171" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R171" t="s" s="2">
         <v>21</v>
@@ -20334,7 +20334,7 @@
         <v>21</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>75</v>
@@ -20343,7 +20343,7 @@
         <v>82</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>95</v>
@@ -20351,10 +20351,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20380,76 +20380,76 @@
         <v>288</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="P172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q172" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="R172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="S172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE172" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF172" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M172" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Q172" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="R172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="S172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AF172" t="s" s="2">
+      <c r="AG172" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH172" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI172" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>95</v>
@@ -20457,10 +20457,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20486,16 +20486,16 @@
         <v>288</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>21</v>
@@ -20544,7 +20544,7 @@
         <v>21</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>75</v>
@@ -20553,7 +20553,7 @@
         <v>82</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>95</v>
@@ -20561,10 +20561,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20587,16 +20587,16 @@
         <v>21</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -20646,7 +20646,7 @@
         <v>21</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>75</v>
@@ -20655,7 +20655,7 @@
         <v>82</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>95</v>
@@ -20663,10 +20663,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20689,16 +20689,16 @@
         <v>21</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20748,7 +20748,7 @@
         <v>21</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>75</v>
@@ -20757,7 +20757,7 @@
         <v>82</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>95</v>
@@ -20765,10 +20765,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20794,13 +20794,13 @@
         <v>544</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
@@ -20850,7 +20850,7 @@
         <v>21</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>75</v>
@@ -20859,7 +20859,7 @@
         <v>76</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>95</v>
@@ -20867,10 +20867,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20967,10 +20967,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -21069,10 +21069,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21173,10 +21173,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21199,16 +21199,16 @@
         <v>21</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
@@ -21237,10 +21237,10 @@
         <v>613</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>21</v>
@@ -21258,7 +21258,7 @@
         <v>21</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>82</v>
@@ -21275,10 +21275,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21304,20 +21304,20 @@
         <v>288</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>21</v>
       </c>
       <c r="Q181" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="R181" t="s" s="2">
         <v>21</v>
@@ -21362,7 +21362,7 @@
         <v>21</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>75</v>
@@ -21379,10 +21379,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21408,16 +21408,16 @@
         <v>544</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>21</v>
@@ -21466,7 +21466,7 @@
         <v>21</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>75</v>
@@ -21475,7 +21475,7 @@
         <v>76</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>95</v>
@@ -21483,10 +21483,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21583,10 +21583,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21685,10 +21685,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21789,10 +21789,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21815,16 +21815,16 @@
         <v>21</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
@@ -21853,10 +21853,10 @@
         <v>613</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>21</v>
@@ -21874,7 +21874,7 @@
         <v>21</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>82</v>
@@ -21891,10 +21891,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21920,16 +21920,16 @@
         <v>77</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>21</v>
@@ -21978,7 +21978,7 @@
         <v>21</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>75</v>
@@ -21987,7 +21987,7 @@
         <v>76</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>21</v>
